--- a/data_year/zb/建筑业/建设工程监理营业收入/工程监理收入.xlsx
+++ b/data_year/zb/建筑业/建设工程监理营业收入/工程监理收入.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,394 +523,116 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2532</v>
+      </c>
       <c r="C2" t="n">
-        <v>53325.26</v>
+        <v>82261</v>
       </c>
       <c r="D2" t="n">
-        <v>12152.15</v>
+        <v>7509</v>
       </c>
       <c r="E2" t="n">
-        <v>31766.17</v>
+        <v>52441</v>
       </c>
       <c r="F2" t="n">
-        <v>82035.67999999999</v>
+        <v>187766</v>
       </c>
       <c r="G2" t="n">
-        <v>1928415.897244</v>
+        <v>5283629</v>
       </c>
       <c r="H2" t="n">
-        <v>125647.56</v>
+        <v>359005</v>
       </c>
       <c r="I2" t="n">
-        <v>1244523.547244</v>
+        <v>3040135</v>
       </c>
       <c r="J2" t="n">
-        <v>2404.74</v>
+        <v>1648</v>
       </c>
       <c r="K2" t="n">
-        <v>74067.86</v>
+        <v>120759</v>
       </c>
       <c r="L2" t="n">
-        <v>20152.35</v>
+        <v>24190</v>
       </c>
       <c r="M2" t="n">
-        <v>179226.86</v>
+        <v>412390</v>
       </c>
       <c r="N2" t="n">
-        <v>12980.29</v>
-      </c>
-      <c r="O2" t="inlineStr"/>
+        <v>56415</v>
+      </c>
+      <c r="O2" t="n">
+        <v>504277</v>
+      </c>
       <c r="P2" t="n">
-        <v>3190.91</v>
+        <v>7751</v>
       </c>
       <c r="Q2" t="n">
-        <v>20719.54</v>
+        <v>58385</v>
       </c>
       <c r="R2" t="n">
-        <v>66222.98</v>
+        <v>366166</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>13292.39</v>
+      </c>
       <c r="C3" t="n">
-        <v>55053.44</v>
+        <v>100290.65</v>
       </c>
       <c r="D3" t="n">
-        <v>12952.54</v>
+        <v>5549.07</v>
       </c>
       <c r="E3" t="n">
-        <v>36016.42</v>
+        <v>62341.19</v>
       </c>
       <c r="F3" t="n">
-        <v>122465.29</v>
+        <v>228732.4</v>
       </c>
       <c r="G3" t="n">
-        <v>2352795.74</v>
+        <v>6662814.87</v>
       </c>
       <c r="H3" t="n">
-        <v>151087.07</v>
+        <v>404719.75</v>
       </c>
       <c r="I3" t="n">
-        <v>1466465.15</v>
+        <v>3755194.65</v>
       </c>
       <c r="J3" t="n">
-        <v>3290.42</v>
+        <v>1074.14</v>
       </c>
       <c r="K3" t="n">
-        <v>98627.35000000001</v>
+        <v>144636.42</v>
       </c>
       <c r="L3" t="n">
-        <v>22660.7</v>
+        <v>26474.1</v>
       </c>
       <c r="M3" t="n">
-        <v>222296.07</v>
+        <v>539776</v>
       </c>
       <c r="N3" t="n">
-        <v>19291.16</v>
-      </c>
-      <c r="O3" t="inlineStr"/>
+        <v>78898.86</v>
+      </c>
+      <c r="O3" t="n">
+        <v>832535.4</v>
+      </c>
       <c r="P3" t="n">
-        <v>3553.12</v>
+        <v>15099.93</v>
       </c>
       <c r="Q3" t="n">
-        <v>34059.95</v>
+        <v>86475.87</v>
       </c>
       <c r="R3" t="n">
-        <v>104977.06</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="n">
-        <v>55351.03</v>
-      </c>
-      <c r="D4" t="n">
-        <v>12049.08</v>
-      </c>
-      <c r="E4" t="n">
-        <v>45225.93</v>
-      </c>
-      <c r="F4" t="n">
-        <v>124349.17</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2700857.61</v>
-      </c>
-      <c r="H4" t="n">
-        <v>173709.01</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1719571.07</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4026.57</v>
-      </c>
-      <c r="K4" t="n">
-        <v>103938.67</v>
-      </c>
-      <c r="L4" t="n">
-        <v>28212.42</v>
-      </c>
-      <c r="M4" t="n">
-        <v>251956.58</v>
-      </c>
-      <c r="N4" t="n">
-        <v>25263.55</v>
-      </c>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="n">
-        <v>4947.78</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>34330.24</v>
-      </c>
-      <c r="R4" t="n">
-        <v>117926.51</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>33</v>
-      </c>
-      <c r="C5" t="n">
-        <v>52199</v>
-      </c>
-      <c r="D5" t="n">
-        <v>15376</v>
-      </c>
-      <c r="E5" t="n">
-        <v>40458</v>
-      </c>
-      <c r="F5" t="n">
-        <v>156688</v>
-      </c>
-      <c r="G5" t="n">
-        <v>3328151</v>
-      </c>
-      <c r="H5" t="n">
-        <v>210711</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2009468</v>
-      </c>
-      <c r="J5" t="n">
-        <v>5413</v>
-      </c>
-      <c r="K5" t="n">
-        <v>121369</v>
-      </c>
-      <c r="L5" t="n">
-        <v>32952</v>
-      </c>
-      <c r="M5" t="n">
-        <v>289046</v>
-      </c>
-      <c r="N5" t="n">
-        <v>36287</v>
-      </c>
-      <c r="O5" t="n">
-        <v>117748</v>
-      </c>
-      <c r="P5" t="n">
-        <v>5513</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>66590</v>
-      </c>
-      <c r="R5" t="n">
-        <v>168300</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1865.35</v>
-      </c>
-      <c r="C6" t="n">
-        <v>59237.51</v>
-      </c>
-      <c r="D6" t="n">
-        <v>8702.84</v>
-      </c>
-      <c r="E6" t="n">
-        <v>40303.46</v>
-      </c>
-      <c r="F6" t="n">
-        <v>158899.81</v>
-      </c>
-      <c r="G6" t="n">
-        <v>4041700.65</v>
-      </c>
-      <c r="H6" t="n">
-        <v>254260.91</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2341621.04</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1335.88</v>
-      </c>
-      <c r="K6" t="n">
-        <v>105832.6</v>
-      </c>
-      <c r="L6" t="n">
-        <v>26865.92</v>
-      </c>
-      <c r="M6" t="n">
-        <v>353311.71</v>
-      </c>
-      <c r="N6" t="n">
-        <v>40751.46</v>
-      </c>
-      <c r="O6" t="n">
-        <v>343259.47</v>
-      </c>
-      <c r="P6" t="n">
-        <v>10023.8</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>52135.79</v>
-      </c>
-      <c r="R6" t="n">
-        <v>243293.1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>2532</v>
-      </c>
-      <c r="C7" t="n">
-        <v>82261</v>
-      </c>
-      <c r="D7" t="n">
-        <v>7509</v>
-      </c>
-      <c r="E7" t="n">
-        <v>52441</v>
-      </c>
-      <c r="F7" t="n">
-        <v>187766</v>
-      </c>
-      <c r="G7" t="n">
-        <v>5283629</v>
-      </c>
-      <c r="H7" t="n">
-        <v>359005</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3040135</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1648</v>
-      </c>
-      <c r="K7" t="n">
-        <v>120759</v>
-      </c>
-      <c r="L7" t="n">
-        <v>24190</v>
-      </c>
-      <c r="M7" t="n">
-        <v>412390</v>
-      </c>
-      <c r="N7" t="n">
-        <v>56415</v>
-      </c>
-      <c r="O7" t="n">
-        <v>504277</v>
-      </c>
-      <c r="P7" t="n">
-        <v>7751</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>58385</v>
-      </c>
-      <c r="R7" t="n">
-        <v>366166</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>13292.39</v>
-      </c>
-      <c r="C8" t="n">
-        <v>100290.65</v>
-      </c>
-      <c r="D8" t="n">
-        <v>5549.07</v>
-      </c>
-      <c r="E8" t="n">
-        <v>62341.19</v>
-      </c>
-      <c r="F8" t="n">
-        <v>228732.4</v>
-      </c>
-      <c r="G8" t="n">
-        <v>6662814.87</v>
-      </c>
-      <c r="H8" t="n">
-        <v>404719.75</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3755194.65</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1074.14</v>
-      </c>
-      <c r="K8" t="n">
-        <v>144636.42</v>
-      </c>
-      <c r="L8" t="n">
-        <v>26474.1</v>
-      </c>
-      <c r="M8" t="n">
-        <v>539776</v>
-      </c>
-      <c r="N8" t="n">
-        <v>78898.86</v>
-      </c>
-      <c r="O8" t="n">
-        <v>832535.4</v>
-      </c>
-      <c r="P8" t="n">
-        <v>15099.93</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>86475.87</v>
-      </c>
-      <c r="R8" t="n">
         <v>367724.05</v>
       </c>
     </row>
